--- a/2017周报归档/20171222周报/技术支撑服务人员周报日报-20171222.xlsx
+++ b/2017周报归档/20171222周报/技术支撑服务人员周报日报-20171222.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="10356"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>项目名称</t>
   </si>
@@ -84,7 +84,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -94,7 +93,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.日志定时任务修改
@@ -112,10 +110,23 @@
     <t>王琪</t>
   </si>
   <si>
+    <t>1独家放送二级页面bug修改，新增bar与blanck
+2交流docker
+3线网bug支持</t>
+  </si>
+  <si>
     <t>罗健</t>
   </si>
   <si>
+    <t>1.贡献榜功能根据咪咕汇暴露问题进行方案调整改造
+2.Spring Cloud框架技术研究并准备分享资料</t>
+  </si>
+  <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t>1.趣玩乐模板修改，调整活动分省，以及一些style样式
+2.处理内容组件资源刷新开发</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -132,6 +143,9 @@
   </si>
   <si>
     <t>曾昌林</t>
+  </si>
+  <si>
+    <t>活动模板后台事件处理</t>
   </si>
   <si>
     <t>何娟</t>
@@ -164,45 +178,27 @@
     <t>胡阳</t>
   </si>
   <si>
+    <t>整理docker文档资料
+调试集群容器访问限制</t>
+  </si>
+  <si>
     <t>文档</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>活动模板后台事件处理</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.贡献榜功能根据咪咕汇暴露问题进行方案调整改造
-2.Spring Cloud框架技术研究并准备分享资料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.趣玩乐模板修改，调整活动分省，以及一些style样式
-2.处理内容组件资源刷新开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1独家放送二级页面bug修改，新增bar与blanck
-2交流docker
-3线网bug支持</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +210,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,54 +217,191 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,12 +410,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -317,18 +635,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,26 +939,67 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -679,509 +1286,512 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171218</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171222</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171218</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171222</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171218</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171222</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="46.5" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171218</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171222</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171218</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171222</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="51.75" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="137.1" customHeight="1" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" customHeight="1" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171218</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171222</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20171218</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20171222</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="8" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>